--- a/4_testing/BTCN02_Test cases_Template.xlsx
+++ b/4_testing/BTCN02_Test cases_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>Báo thành công và dẫn đến trang thanh toán</t>
-  </si>
-  <si>
-    <t>Chức năng 12: Thanh toán dịch vụ cung cấp hệ thống QLKS</t>
   </si>
   <si>
     <t>12 - 001</t>
@@ -955,9 +952,6 @@
   </si>
   <si>
     <t>10 - 006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chức năng 11: Xem thống kê </t>
   </si>
   <si>
     <t>Xem thống kê tổng phí theo chủ khách sạn</t>
@@ -2707,9 +2701,6 @@
     <t>Đường dẫn: http://abc.letut.tech/hotel/report</t>
   </si>
   <si>
-    <t>Đường dẫn: http://abc.letut.tech/hotel/</t>
-  </si>
-  <si>
     <t>Đường dẫn: http://abc.letut.tech/hotel/bookmanage</t>
   </si>
   <si>
@@ -2732,6 +2723,122 @@
   </si>
   <si>
     <t xml:space="preserve">Lấy khách sạn có đường dẫn sau để kiểm thử: http://abc.letut.tech/hotel </t>
+  </si>
+  <si>
+    <t>Chức năng 11: Sửa khách sạn</t>
+  </si>
+  <si>
+    <t>Chức năng 12: Xóa khách sạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng 13: Xem thống kê </t>
+  </si>
+  <si>
+    <t>Chức năng 14: Thanh toán dịch vụ cung cấp hệ thống QLKS</t>
+  </si>
+  <si>
+    <t>14 - 009</t>
+  </si>
+  <si>
+    <t>14 - 008</t>
+  </si>
+  <si>
+    <t>14 - 006</t>
+  </si>
+  <si>
+    <t>14 - 005</t>
+  </si>
+  <si>
+    <t>14 - 003</t>
+  </si>
+  <si>
+    <t>14 - 002</t>
+  </si>
+  <si>
+    <t>Sửa tên khách sạn rỗng</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn:
+2. Nhập tên miền: xyz
+3. Chọn gói khách sạn
+4. Chọn số phòng: 10
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: xyz
+2. Nhập tên miền:
+3. Chọn gói khách sạn
+4. Chọn số phòng: 10
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: xyz
+2. Nhập tên miền: xyz
+3. Không Chọn gói khách sạn
+4. Chọn số phòng: 10
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: xyz
+2. Nhập tên miền: xyz
+3. Chọn gói khách sạn
+4. Chọn số phòng:
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: xyz
+2. Nhập tên miền: xyz
+3. Chọn gói khách sạn
+4. Chọn số phòng: 10
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: kkk
+2. Nhập tên miền: abc
+3. Chọn gói khách sạn
+4. Chọn số phòng: 20
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>Sửa tên miền đã trùng</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn: kkk
+2. Nhập tên miền: kkk
+3. Chọn gói khách sạn
+4. Chọn số phòng: 20
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>Xóa khách sạn</t>
+  </si>
+  <si>
+    <t>1. Nhập tên khách sạn:
+2. Nhập tên miền: kkk
+3. Mua thêm gói khách sạn
+4. Chọn số phòng: 20
+5. Nhấn "Thêm khách sạn"</t>
+  </si>
+  <si>
+    <t>Báo thành công và thông tin đặt phòng thay đổi</t>
+  </si>
+  <si>
+    <t>Nhấp vào nút xóa khách sạn</t>
+  </si>
+  <si>
+    <t>Báo thành công và thông tin khách sạn thay đổi</t>
+  </si>
+  <si>
+    <t>Báo thành công và khách sạn bị xóa</t>
+  </si>
+  <si>
+    <t>Đường dẫn: http://abc.letut.tech/hotel/ (khung tìm kím ngay trang chủ)</t>
+  </si>
+  <si>
+    <t>Đường dẫn: http://letut.tech/managehoteler (Nhấp vào nút sửa kế bên 1 khách sạn)</t>
+  </si>
+  <si>
+    <t>Đường dẫn: http://letut.tech/managehoteler (Nhấp vào nút xóa kế bên 1 khách sạn)</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1">
         <v>12</v>
@@ -3270,7 +3377,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -3292,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3463,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3397,7 +3504,7 @@
       </c>
       <c r="J4" s="2">
         <f>COUNTIF(A:I,"NPHoang")</f>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3560,7 +3667,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3859,7 +3966,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4029,10 +4136,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>2</v>
@@ -4075,16 +4182,16 @@
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
@@ -4104,16 +4211,16 @@
     </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>19</v>
@@ -4133,16 +4240,16 @@
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>19</v>
@@ -4162,16 +4269,16 @@
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>19</v>
@@ -4191,7 +4298,7 @@
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>45</v>
@@ -4200,7 +4307,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
@@ -4220,7 +4327,7 @@
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>79</v>
@@ -4229,13 +4336,13 @@
         <v>57</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>2</v>
@@ -4262,7 +4369,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4578,7 +4685,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4600,7 +4707,7 @@
         <v>106</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>19</v>
@@ -4629,7 +4736,7 @@
         <v>106</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>19</v>
@@ -4658,7 +4765,7 @@
         <v>106</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
@@ -4687,7 +4794,7 @@
         <v>106</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>19</v>
@@ -4707,7 +4814,7 @@
     </row>
     <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>87</v>
@@ -4716,7 +4823,7 @@
         <v>89</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>100</v>
@@ -4745,7 +4852,7 @@
         <v>106</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>19</v>
@@ -4774,7 +4881,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>19</v>
@@ -4803,7 +4910,7 @@
         <v>89</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
@@ -4832,7 +4939,7 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>19</v>
@@ -4861,7 +4968,7 @@
         <v>106</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>19</v>
@@ -4890,7 +4997,7 @@
         <v>106</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>84</v>
@@ -4923,7 +5030,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5152,7 +5259,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -5368,7 +5475,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -5381,7 +5488,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5394,7 +5501,7 @@
     </row>
     <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>165</v>
@@ -5423,7 +5530,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -5436,7 +5543,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -5478,7 +5585,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -5491,7 +5598,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5513,7 +5620,7 @@
         <v>170</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>179</v>
+        <v>616</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>19</v>
@@ -5533,7 +5640,7 @@
     </row>
     <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>174</v>
@@ -5542,7 +5649,7 @@
         <v>170</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>179</v>
+        <v>617</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>19</v>
@@ -5562,7 +5669,7 @@
     </row>
     <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>175</v>
@@ -5571,7 +5678,7 @@
         <v>170</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>179</v>
+        <v>618</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>19</v>
@@ -5591,7 +5698,7 @@
     </row>
     <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>176</v>
@@ -5600,7 +5707,7 @@
         <v>170</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>179</v>
+        <v>619</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>19</v>
@@ -5620,7 +5727,7 @@
     </row>
     <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>177</v>
@@ -5649,7 +5756,7 @@
     </row>
     <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -5658,7 +5765,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>179</v>
+        <v>620</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>180</v>
@@ -5678,7 +5785,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -5690,376 +5797,548 @@
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="28"/>
-    </row>
-    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="28"/>
+    </row>
+    <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="F104" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G96" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
-    </row>
-    <row r="100" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="G105" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="C109" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C110" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C111" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G108" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A94:I94"/>
+  <mergeCells count="28">
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A102:I102"/>
     <mergeCell ref="A80:I80"/>
     <mergeCell ref="A81:I81"/>
     <mergeCell ref="A83:I83"/>
     <mergeCell ref="A84:I84"/>
     <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A94:I94"/>
     <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A71:I71"/>
     <mergeCell ref="A72:I72"/>
     <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A106:I106"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A49:I49"/>
@@ -6081,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,7 +6380,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6156,7 +6435,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6243,10 +6522,10 @@
         <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>2</v>
@@ -6263,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -6272,10 +6551,10 @@
         <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>2</v>
@@ -6292,13 +6571,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>36</v>
@@ -6347,7 +6626,7 @@
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
@@ -6389,7 +6668,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -6688,7 +6967,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6904,16 +7183,16 @@
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>19</v>
@@ -6933,16 +7212,16 @@
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>19</v>
@@ -6962,16 +7241,16 @@
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
@@ -6991,16 +7270,16 @@
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>19</v>
@@ -7020,7 +7299,7 @@
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
@@ -7029,7 +7308,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>19</v>
@@ -7049,7 +7328,7 @@
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
@@ -7058,13 +7337,13 @@
         <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>2</v>
@@ -7078,7 +7357,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -7091,7 +7370,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7110,10 +7389,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>19</v>
@@ -7139,10 +7418,10 @@
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>19</v>
@@ -7168,10 +7447,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>19</v>
@@ -7197,10 +7476,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>19</v>
@@ -7223,13 +7502,13 @@
         <v>73</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>19</v>
@@ -7255,10 +7534,10 @@
         <v>75</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>19</v>
@@ -7284,10 +7563,10 @@
         <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
@@ -7313,10 +7592,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>19</v>
@@ -7342,10 +7621,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>19</v>
@@ -7368,13 +7647,13 @@
         <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>19</v>
@@ -7394,16 +7673,16 @@
     </row>
     <row r="51" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>19</v>
@@ -7423,16 +7702,16 @@
     </row>
     <row r="52" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -7452,7 +7731,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -7465,7 +7744,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -7484,10 +7763,10 @@
         <v>38</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>19</v>
@@ -7513,10 +7792,10 @@
         <v>42</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>19</v>
@@ -7542,10 +7821,10 @@
         <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>19</v>
@@ -7571,10 +7850,10 @@
         <v>44</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
@@ -7594,16 +7873,16 @@
     </row>
     <row r="59" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>19</v>
@@ -7629,10 +7908,10 @@
         <v>88</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>19</v>
@@ -7658,10 +7937,10 @@
         <v>46</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>19</v>
@@ -7687,10 +7966,10 @@
         <v>47</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>19</v>
@@ -7716,10 +7995,10 @@
         <v>49</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
@@ -7745,10 +8024,10 @@
         <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>84</v>
@@ -7768,7 +8047,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -7781,7 +8060,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -7800,10 +8079,10 @@
         <v>38</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>19</v>
@@ -7829,10 +8108,10 @@
         <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>19</v>
@@ -7858,10 +8137,10 @@
         <v>43</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>19</v>
@@ -7887,10 +8166,10 @@
         <v>44</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>19</v>
@@ -7913,13 +8192,13 @@
         <v>108</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>19</v>
@@ -7945,10 +8224,10 @@
         <v>47</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>19</v>
@@ -7974,10 +8253,10 @@
         <v>46</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>19</v>
@@ -7997,16 +8276,16 @@
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>19</v>
@@ -8026,16 +8305,16 @@
     </row>
     <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>84</v>
@@ -8055,7 +8334,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8068,7 +8347,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -8087,10 +8366,10 @@
         <v>38</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>19</v>
@@ -8116,7 +8395,7 @@
         <v>42</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>146</v>
@@ -8145,7 +8424,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>161</v>
@@ -8174,7 +8453,7 @@
         <v>44</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>162</v>
@@ -8203,7 +8482,7 @@
         <v>47</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>149</v>
@@ -8232,7 +8511,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>150</v>
@@ -8261,7 +8540,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>144</v>
@@ -8284,7 +8563,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -8297,7 +8576,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -8310,10 +8589,10 @@
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>111</v>
@@ -8339,7 +8618,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -8352,7 +8631,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -8368,7 +8647,7 @@
         <v>164</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>159</v>
@@ -8394,7 +8673,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -8407,7 +8686,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -8423,13 +8702,13 @@
         <v>168</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>19</v>
@@ -8449,16 +8728,16 @@
     </row>
     <row r="94" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>19</v>
@@ -8478,16 +8757,16 @@
     </row>
     <row r="95" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>19</v>
@@ -8507,16 +8786,16 @@
     </row>
     <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>19</v>
@@ -8536,22 +8815,22 @@
     </row>
     <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>2</v>
@@ -8565,16 +8844,16 @@
     </row>
     <row r="98" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>19</v>
@@ -8594,16 +8873,16 @@
     </row>
     <row r="99" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>19</v>
@@ -8623,16 +8902,16 @@
     </row>
     <row r="100" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>19</v>
@@ -8652,22 +8931,22 @@
     </row>
     <row r="101" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>2</v>
@@ -8681,7 +8960,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -8694,7 +8973,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -8710,13 +8989,13 @@
         <v>171</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>19</v>
@@ -8739,13 +9018,13 @@
         <v>173</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>19</v>
@@ -8765,16 +9044,16 @@
     </row>
     <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>19</v>
@@ -8794,16 +9073,16 @@
     </row>
     <row r="107" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>19</v>
@@ -8823,16 +9102,16 @@
     </row>
     <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>19</v>
@@ -8852,16 +9131,16 @@
     </row>
     <row r="109" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>19</v>
@@ -8881,22 +9160,22 @@
     </row>
     <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>2</v>
@@ -8910,7 +9189,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -8923,7 +9202,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -8936,16 +9215,16 @@
     </row>
     <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>19</v>
@@ -8965,16 +9244,16 @@
     </row>
     <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>19</v>
@@ -8994,16 +9273,16 @@
     </row>
     <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>19</v>
@@ -9023,16 +9302,16 @@
     </row>
     <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>19</v>
@@ -9052,16 +9331,16 @@
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>19</v>
@@ -9081,16 +9360,16 @@
     </row>
     <row r="118" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>19</v>
@@ -9110,16 +9389,16 @@
     </row>
     <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>19</v>
@@ -9139,16 +9418,16 @@
     </row>
     <row r="120" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>19</v>
@@ -9168,16 +9447,16 @@
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>19</v>
@@ -9197,22 +9476,22 @@
     </row>
     <row r="122" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G122" s="29" t="s">
         <v>2</v>
@@ -9226,7 +9505,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -9239,7 +9518,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
@@ -9252,22 +9531,22 @@
     </row>
     <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G125" s="29" t="s">
         <v>2</v>
@@ -9281,22 +9560,22 @@
     </row>
     <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G126" s="29" t="s">
         <v>2</v>
@@ -9310,7 +9589,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -9323,7 +9602,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
@@ -9336,22 +9615,22 @@
     </row>
     <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="F129" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>2</v>
@@ -9365,7 +9644,7 @@
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -9378,7 +9657,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
@@ -9391,22 +9670,22 @@
     </row>
     <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="F132" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G132" s="29" t="s">
         <v>2</v>
@@ -9420,7 +9699,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -9433,7 +9712,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
@@ -9446,14 +9725,14 @@
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>19</v>
@@ -9473,14 +9752,14 @@
     </row>
     <row r="136" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>19</v>
@@ -9500,14 +9779,14 @@
     </row>
     <row r="137" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>19</v>
@@ -9527,14 +9806,14 @@
     </row>
     <row r="138" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>19</v>
@@ -9554,14 +9833,14 @@
     </row>
     <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>19</v>
@@ -9581,14 +9860,14 @@
     </row>
     <row r="140" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>19</v>
@@ -9608,14 +9887,14 @@
     </row>
     <row r="141" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>19</v>
@@ -9635,22 +9914,22 @@
     </row>
     <row r="142" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="F142" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G142" s="29" t="s">
         <v>2</v>
@@ -9664,22 +9943,22 @@
     </row>
     <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="F143" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G143" s="29" t="s">
         <v>2</v>
@@ -9693,7 +9972,7 @@
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -9706,7 +9985,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
@@ -9719,16 +9998,16 @@
     </row>
     <row r="146" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>19</v>
@@ -9748,16 +10027,16 @@
     </row>
     <row r="147" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>19</v>
@@ -9777,16 +10056,16 @@
     </row>
     <row r="148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>19</v>
@@ -9806,16 +10085,16 @@
     </row>
     <row r="149" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A149" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>19</v>
@@ -9835,16 +10114,16 @@
     </row>
     <row r="150" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>19</v>
@@ -9864,16 +10143,16 @@
     </row>
     <row r="151" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>19</v>
@@ -9893,16 +10172,16 @@
     </row>
     <row r="152" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>19</v>
@@ -9922,16 +10201,16 @@
     </row>
     <row r="153" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>19</v>
@@ -9951,16 +10230,16 @@
     </row>
     <row r="154" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>19</v>
@@ -9980,16 +10259,16 @@
     </row>
     <row r="155" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>19</v>
@@ -10009,16 +10288,16 @@
     </row>
     <row r="156" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>19</v>
@@ -10038,16 +10317,16 @@
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>19</v>
@@ -10067,16 +10346,16 @@
     </row>
     <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>19</v>
@@ -10096,22 +10375,22 @@
     </row>
     <row r="159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G159" s="30" t="s">
         <v>2</v>
@@ -10125,7 +10404,7 @@
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -10138,7 +10417,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
@@ -10151,13 +10430,13 @@
     </row>
     <row r="162" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>19</v>
@@ -10177,13 +10456,13 @@
     </row>
     <row r="163" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>19</v>
@@ -10203,13 +10482,13 @@
     </row>
     <row r="164" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>19</v>
@@ -10229,13 +10508,13 @@
     </row>
     <row r="165" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>19</v>
@@ -10255,16 +10534,16 @@
     </row>
     <row r="166" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>19</v>
@@ -10284,16 +10563,16 @@
     </row>
     <row r="167" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>19</v>
@@ -10313,13 +10592,13 @@
     </row>
     <row r="168" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>19</v>
@@ -10339,13 +10618,13 @@
     </row>
     <row r="169" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>19</v>
@@ -10365,13 +10644,13 @@
     </row>
     <row r="170" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>19</v>
@@ -10391,16 +10670,16 @@
     </row>
     <row r="171" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>19</v>
@@ -10420,13 +10699,13 @@
     </row>
     <row r="172" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>19</v>
@@ -10446,13 +10725,13 @@
     </row>
     <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>19</v>
@@ -10472,22 +10751,22 @@
     </row>
     <row r="174" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G174" s="30" t="s">
         <v>2</v>
@@ -10501,7 +10780,7 @@
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -10514,7 +10793,7 @@
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -10527,22 +10806,22 @@
     </row>
     <row r="177" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B177" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="E177" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G177" s="29" t="s">
         <v>2</v>
@@ -10551,12 +10830,12 @@
         <v>5</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -10569,7 +10848,7 @@
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -10582,16 +10861,16 @@
     </row>
     <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>19</v>
@@ -10611,16 +10890,16 @@
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>19</v>
@@ -10635,21 +10914,21 @@
         <v>5</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>19</v>
@@ -10664,21 +10943,21 @@
         <v>5</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>19</v>
@@ -10693,21 +10972,21 @@
         <v>5</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>19</v>
@@ -10722,21 +11001,21 @@
         <v>5</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>19</v>
@@ -10751,27 +11030,27 @@
         <v>5</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G186" s="29" t="s">
         <v>2</v>
@@ -10780,12 +11059,12 @@
         <v>5</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -10798,7 +11077,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -10811,16 +11090,16 @@
     </row>
     <row r="189" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>19</v>
@@ -10840,16 +11119,16 @@
     </row>
     <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>19</v>
@@ -10864,21 +11143,21 @@
         <v>5</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>19</v>
@@ -10893,27 +11172,27 @@
         <v>5</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G192" s="29" t="s">
         <v>2</v>
@@ -10922,21 +11201,21 @@
         <v>5</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>19</v>
@@ -10951,21 +11230,21 @@
         <v>5</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>19</v>
@@ -10980,27 +11259,27 @@
         <v>5</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G195" s="29" t="s">
         <v>2</v>
@@ -11009,12 +11288,12 @@
         <v>5</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -11027,7 +11306,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -11040,22 +11319,22 @@
     </row>
     <row r="198" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="D198" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="E198" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D198" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>446</v>
-      </c>
       <c r="F198" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G198" s="29" t="s">
         <v>2</v>
@@ -11064,12 +11343,12 @@
         <v>5</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -11082,7 +11361,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -11095,16 +11374,16 @@
     </row>
     <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>19</v>
@@ -11119,27 +11398,27 @@
         <v>5</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="E202" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G202" s="29" t="s">
         <v>2</v>
@@ -11148,12 +11427,12 @@
         <v>5</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -11166,7 +11445,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -11179,22 +11458,22 @@
     </row>
     <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="D205" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G205" s="29" t="s">
         <v>2</v>

--- a/4_testing/BTCN02_Test cases_Template.xlsx
+++ b/4_testing/BTCN02_Test cases_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="657">
   <si>
     <t>ID</t>
   </si>
@@ -2839,6 +2839,88 @@
   </si>
   <si>
     <t>Đường dẫn: http://letut.tech/managehoteler (Nhấp vào nút xóa kế bên 1 khách sạn)</t>
+  </si>
+  <si>
+    <t>Chức năng 15: Khôi phục lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Không nhập tên</t>
+  </si>
+  <si>
+    <t>Không nhập email</t>
+  </si>
+  <si>
+    <t>15 - 002</t>
+  </si>
+  <si>
+    <t>15 - 003</t>
+  </si>
+  <si>
+    <t>1. Nhập tên: 
+2. Nhập email: abc@gmail.com
+3. Nhấn OK</t>
+  </si>
+  <si>
+    <t>1. Nhập tên: hoang123
+2. Nhập email: 
+3. Nhấn OK</t>
+  </si>
+  <si>
+    <t>1. Nhập tên: hoang123
+2. Nhập email: abc@gmail.com
+3. Nhấn OK</t>
+  </si>
+  <si>
+    <t>Đã tồn lại một tài khoản trên hệ thống</t>
+  </si>
+  <si>
+    <t>Một mật khẩu mới được gửi đến email nhập vào và có thể đăng nhập lại được</t>
+  </si>
+  <si>
+    <t>Chức năng 25: Khôi phục lại mật khẩu</t>
+  </si>
+  <si>
+    <t>15 - 004</t>
+  </si>
+  <si>
+    <t>15 - 005</t>
+  </si>
+  <si>
+    <t>Nhập tên không khớp</t>
+  </si>
+  <si>
+    <t>Nhập email không khớp</t>
+  </si>
+  <si>
+    <t>1. Nhập tên: luan123
+2. Nhập email: abc@gmail.com
+3. Nhấn OK</t>
+  </si>
+  <si>
+    <t>1. Nhập tên: hoang123
+2. Nhập email: abc@gmail.vn
+3. Nhấn OK</t>
+  </si>
+  <si>
+    <t>25 - 001</t>
+  </si>
+  <si>
+    <t>25 - 002</t>
+  </si>
+  <si>
+    <t>25 - 003</t>
+  </si>
+  <si>
+    <t>25 - 004</t>
+  </si>
+  <si>
+    <t>25 - 005</t>
+  </si>
+  <si>
+    <t>Đường dẫn: http://abc.letut.tech/hotel (popup đăng nhập)</t>
+  </si>
+  <si>
+    <t>Đường dẫn: http://letut.tech  (popup đăng nhập)</t>
   </si>
 </sst>
 </file>
@@ -2980,11 +3062,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2995,14 +3107,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3021,33 +3130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3399,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3495,7 @@
     <col min="4" max="4" width="35.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
@@ -3449,30 +3531,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3493,7 +3575,7 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -3504,7 +3586,7 @@
       </c>
       <c r="J4" s="2">
         <f>COUNTIF(A:I,"NPHoang")</f>
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3526,7 +3608,7 @@
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3536,7 +3618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3555,7 +3637,7 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3565,7 +3647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3584,7 +3666,7 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3613,7 +3695,7 @@
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3642,7 +3724,7 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3653,30 +3735,30 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3695,7 +3777,7 @@
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3722,7 +3804,7 @@
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3749,7 +3831,7 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3776,7 +3858,7 @@
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3803,7 +3885,7 @@
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3830,7 +3912,7 @@
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3856,7 +3938,7 @@
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3885,7 +3967,7 @@
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3912,7 +3994,7 @@
       <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3941,7 +4023,7 @@
       <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3952,30 +4034,30 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3996,7 +4078,7 @@
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -4025,7 +4107,7 @@
       <c r="F25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -4054,7 +4136,7 @@
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -4083,7 +4165,7 @@
       <c r="F27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -4112,7 +4194,7 @@
       <c r="F28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4141,7 +4223,7 @@
       <c r="F29" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -4170,7 +4252,7 @@
       <c r="F30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -4199,7 +4281,7 @@
       <c r="F31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -4228,7 +4310,7 @@
       <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -4257,7 +4339,7 @@
       <c r="F33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -4286,7 +4368,7 @@
       <c r="F34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -4315,7 +4397,7 @@
       <c r="F35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -4344,7 +4426,7 @@
       <c r="F36" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -4355,30 +4437,30 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -4399,7 +4481,7 @@
       <c r="F39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -4428,7 +4510,7 @@
       <c r="F40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -4457,7 +4539,7 @@
       <c r="F41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4486,7 +4568,7 @@
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -4515,7 +4597,7 @@
       <c r="F43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -4544,7 +4626,7 @@
       <c r="F44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -4573,7 +4655,7 @@
       <c r="F45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -4602,7 +4684,7 @@
       <c r="F46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -4631,7 +4713,7 @@
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -4660,7 +4742,7 @@
       <c r="F48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -4671,30 +4753,30 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -4715,7 +4797,7 @@
       <c r="F51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -4744,7 +4826,7 @@
       <c r="F52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4773,7 +4855,7 @@
       <c r="F53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -4802,7 +4884,7 @@
       <c r="F54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4831,7 +4913,7 @@
       <c r="F55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4860,7 +4942,7 @@
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4889,7 +4971,7 @@
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -4918,7 +5000,7 @@
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4947,7 +5029,7 @@
       <c r="F59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4976,7 +5058,7 @@
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -5005,7 +5087,7 @@
       <c r="F61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -5016,30 +5098,30 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -5060,7 +5142,7 @@
       <c r="F64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -5089,7 +5171,7 @@
       <c r="F65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -5118,7 +5200,7 @@
       <c r="F66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -5147,7 +5229,7 @@
       <c r="F67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -5176,7 +5258,7 @@
       <c r="F68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5205,7 +5287,7 @@
       <c r="F69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -5234,7 +5316,7 @@
       <c r="F70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5245,30 +5327,30 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -5289,7 +5371,7 @@
       <c r="F73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -5318,7 +5400,7 @@
       <c r="F74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5347,7 +5429,7 @@
       <c r="F75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -5376,7 +5458,7 @@
       <c r="F76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5405,7 +5487,7 @@
       <c r="F77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G77" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -5434,7 +5516,7 @@
       <c r="F78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5463,7 +5545,7 @@
       <c r="F79" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -5474,30 +5556,30 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -5518,7 +5600,7 @@
       <c r="F82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5529,30 +5611,30 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -5573,7 +5655,7 @@
       <c r="F85" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -5584,30 +5666,30 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -5628,7 +5710,7 @@
       <c r="F88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -5657,7 +5739,7 @@
       <c r="F89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -5686,7 +5768,7 @@
       <c r="F90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -5715,7 +5797,7 @@
       <c r="F91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -5744,7 +5826,7 @@
       <c r="F92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -5773,7 +5855,7 @@
       <c r="F93" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -5784,30 +5866,30 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
@@ -5828,7 +5910,7 @@
       <c r="F96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -5857,7 +5939,7 @@
       <c r="F97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -5886,7 +5968,7 @@
       <c r="F98" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -5897,30 +5979,30 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -5941,7 +6023,7 @@
       <c r="F101" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -5952,28 +6034,28 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="28"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -5994,7 +6076,7 @@
       <c r="F104" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -6023,7 +6105,7 @@
       <c r="F105" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -6034,30 +6116,30 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="15"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -6078,7 +6160,7 @@
       <c r="F108" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -6107,7 +6189,7 @@
       <c r="F109" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -6136,7 +6218,7 @@
       <c r="F110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -6165,7 +6247,7 @@
       <c r="F111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G111" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -6194,7 +6276,7 @@
       <c r="F112" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -6223,7 +6305,7 @@
       <c r="F113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -6252,7 +6334,7 @@
       <c r="F114" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -6281,7 +6363,7 @@
       <c r="F115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -6310,7 +6392,7 @@
       <c r="F116" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -6320,8 +6402,193 @@
         <v>18</v>
       </c>
     </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="14"/>
+    </row>
+    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A106:I106"/>
     <mergeCell ref="A107:I107"/>
     <mergeCell ref="A102:I102"/>
     <mergeCell ref="A80:I80"/>
@@ -6334,22 +6601,6 @@
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A99:I99"/>
     <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6358,10 +6609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207:I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,24 +6623,24 @@
     <col min="4" max="4" width="31.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6421,30 +6672,30 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6465,7 +6716,7 @@
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -6476,7 +6727,7 @@
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(A:I,"NPHoang")</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6498,7 +6749,7 @@
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -6527,7 +6778,7 @@
       <c r="F7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -6556,7 +6807,7 @@
       <c r="F8" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -6585,7 +6836,7 @@
       <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -6614,7 +6865,7 @@
       <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -6643,7 +6894,7 @@
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -6654,30 +6905,30 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -6696,7 +6947,7 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -6723,7 +6974,7 @@
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -6750,7 +7001,7 @@
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -6777,7 +7028,7 @@
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -6804,7 +7055,7 @@
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -6831,7 +7082,7 @@
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -6857,7 +7108,7 @@
       <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -6886,7 +7137,7 @@
       <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -6913,7 +7164,7 @@
       <c r="F22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -6942,7 +7193,7 @@
       <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -6953,30 +7204,30 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -6997,7 +7248,7 @@
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -7026,7 +7277,7 @@
       <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -7055,7 +7306,7 @@
       <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -7084,7 +7335,7 @@
       <c r="F29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -7113,7 +7364,7 @@
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -7142,7 +7393,7 @@
       <c r="F31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -7171,7 +7422,7 @@
       <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -7200,7 +7451,7 @@
       <c r="F33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -7229,7 +7480,7 @@
       <c r="F34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -7258,7 +7509,7 @@
       <c r="F35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -7287,7 +7538,7 @@
       <c r="F36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -7316,7 +7567,7 @@
       <c r="F37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -7345,7 +7596,7 @@
       <c r="F38" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -7356,30 +7607,30 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7400,7 +7651,7 @@
       <c r="F41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -7429,7 +7680,7 @@
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -7458,7 +7709,7 @@
       <c r="F43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -7487,7 +7738,7 @@
       <c r="F44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -7516,7 +7767,7 @@
       <c r="F45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -7545,7 +7796,7 @@
       <c r="F46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -7574,7 +7825,7 @@
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -7603,7 +7854,7 @@
       <c r="F48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -7632,7 +7883,7 @@
       <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -7661,7 +7912,7 @@
       <c r="F50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -7690,7 +7941,7 @@
       <c r="F51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -7719,7 +7970,7 @@
       <c r="F52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -7730,30 +7981,30 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -7774,7 +8025,7 @@
       <c r="F55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -7803,7 +8054,7 @@
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -7832,7 +8083,7 @@
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -7861,7 +8112,7 @@
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -7890,7 +8141,7 @@
       <c r="F59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -7919,7 +8170,7 @@
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -7948,7 +8199,7 @@
       <c r="F61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -7977,7 +8228,7 @@
       <c r="F62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -8006,7 +8257,7 @@
       <c r="F63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -8035,7 +8286,7 @@
       <c r="F64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -8046,30 +8297,30 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -8090,7 +8341,7 @@
       <c r="F67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -8119,7 +8370,7 @@
       <c r="F68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -8148,7 +8399,7 @@
       <c r="F69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -8177,7 +8428,7 @@
       <c r="F70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -8206,7 +8457,7 @@
       <c r="F71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -8235,7 +8486,7 @@
       <c r="F72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -8264,7 +8515,7 @@
       <c r="F73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -8293,7 +8544,7 @@
       <c r="F74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -8322,7 +8573,7 @@
       <c r="F75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -8333,30 +8584,30 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -8377,7 +8628,7 @@
       <c r="F78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -8406,7 +8657,7 @@
       <c r="F79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -8435,7 +8686,7 @@
       <c r="F80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -8464,7 +8715,7 @@
       <c r="F81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -8493,7 +8744,7 @@
       <c r="F82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -8522,7 +8773,7 @@
       <c r="F83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -8551,7 +8802,7 @@
       <c r="F84" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -8562,30 +8813,30 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -8606,7 +8857,7 @@
       <c r="F87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -8617,30 +8868,30 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -8661,7 +8912,7 @@
       <c r="F90" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -8672,30 +8923,30 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -8716,7 +8967,7 @@
       <c r="F93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -8745,7 +8996,7 @@
       <c r="F94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -8774,7 +9025,7 @@
       <c r="F95" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G95" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -8803,7 +9054,7 @@
       <c r="F96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -8832,7 +9083,7 @@
       <c r="F97" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -8861,7 +9112,7 @@
       <c r="F98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -8890,7 +9141,7 @@
       <c r="F99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -8919,7 +9170,7 @@
       <c r="F100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -8948,7 +9199,7 @@
       <c r="F101" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -8959,30 +9210,30 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="15"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -9003,7 +9254,7 @@
       <c r="F104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -9032,7 +9283,7 @@
       <c r="F105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -9061,7 +9312,7 @@
       <c r="F106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -9090,7 +9341,7 @@
       <c r="F107" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -9119,7 +9370,7 @@
       <c r="F108" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -9148,7 +9399,7 @@
       <c r="F109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H109" s="3" t="s">
@@ -9177,7 +9428,7 @@
       <c r="F110" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -9188,30 +9439,30 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="15"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -9232,7 +9483,7 @@
       <c r="F113" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H113" s="3" t="s">
@@ -9261,7 +9512,7 @@
       <c r="F114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H114" s="3" t="s">
@@ -9290,7 +9541,7 @@
       <c r="F115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="3" t="s">
@@ -9319,7 +9570,7 @@
       <c r="F116" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H116" s="3" t="s">
@@ -9348,7 +9599,7 @@
       <c r="F117" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H117" s="3" t="s">
@@ -9377,7 +9628,7 @@
       <c r="F118" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H118" s="3" t="s">
@@ -9406,7 +9657,7 @@
       <c r="F119" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H119" s="3" t="s">
@@ -9435,7 +9686,7 @@
       <c r="F120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H120" s="3" t="s">
@@ -9464,7 +9715,7 @@
       <c r="F121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H121" s="3" t="s">
@@ -9493,7 +9744,7 @@
       <c r="F122" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H122" s="3" t="s">
@@ -9504,30 +9755,30 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -9548,7 +9799,7 @@
       <c r="F125" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H125" s="3" t="s">
@@ -9577,7 +9828,7 @@
       <c r="F126" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H126" s="3" t="s">
@@ -9588,30 +9839,30 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="24"/>
     </row>
     <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -9632,7 +9883,7 @@
       <c r="F129" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H129" s="3" t="s">
@@ -9643,30 +9894,30 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="24"/>
     </row>
     <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -9687,7 +9938,7 @@
       <c r="F132" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H132" s="3" t="s">
@@ -9698,30 +9949,30 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="24"/>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -9740,7 +9991,7 @@
       <c r="F135" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H135" s="3" t="s">
@@ -9767,7 +10018,7 @@
       <c r="F136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H136" s="3" t="s">
@@ -9794,7 +10045,7 @@
       <c r="F137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H137" s="3" t="s">
@@ -9821,7 +10072,7 @@
       <c r="F138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G138" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H138" s="3" t="s">
@@ -9848,7 +10099,7 @@
       <c r="F139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H139" s="3" t="s">
@@ -9875,7 +10126,7 @@
       <c r="F140" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G140" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H140" s="3" t="s">
@@ -9902,7 +10153,7 @@
       <c r="F141" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -9931,7 +10182,7 @@
       <c r="F142" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G142" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H142" s="3" t="s">
@@ -9960,7 +10211,7 @@
       <c r="F143" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G143" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H143" s="3" t="s">
@@ -9971,33 +10222,33 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
+      <c r="A145" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="24"/>
     </row>
     <row r="146" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="8" t="s">
         <v>482</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -10015,18 +10266,18 @@
       <c r="F146" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G146" s="30" t="s">
+      <c r="G146" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I146" s="25">
+      <c r="I146" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
+      <c r="A147" s="8" t="s">
         <v>513</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -10044,18 +10295,18 @@
       <c r="F147" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G147" s="30" t="s">
+      <c r="G147" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I147" s="25">
+      <c r="I147" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="8" t="s">
         <v>514</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -10073,18 +10324,18 @@
       <c r="F148" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G148" s="30" t="s">
+      <c r="G148" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I148" s="25">
+      <c r="I148" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="8" t="s">
         <v>515</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -10102,18 +10353,18 @@
       <c r="F149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G149" s="30" t="s">
+      <c r="G149" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I149" s="25">
+      <c r="I149" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="8" t="s">
         <v>516</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -10131,18 +10382,18 @@
       <c r="F150" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G150" s="30" t="s">
+      <c r="G150" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I150" s="25">
+      <c r="I150" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+      <c r="A151" s="8" t="s">
         <v>517</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -10160,18 +10411,18 @@
       <c r="F151" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G151" s="30" t="s">
+      <c r="G151" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I151" s="25">
+      <c r="I151" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="8" t="s">
         <v>518</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -10189,18 +10440,18 @@
       <c r="F152" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G152" s="30" t="s">
+      <c r="G152" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I152" s="25">
+      <c r="I152" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="8" t="s">
         <v>519</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -10218,18 +10469,18 @@
       <c r="F153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G153" s="30" t="s">
+      <c r="G153" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I153" s="25">
+      <c r="I153" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="8" t="s">
         <v>523</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -10247,18 +10498,18 @@
       <c r="F154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G154" s="30" t="s">
+      <c r="G154" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I154" s="25">
+      <c r="I154" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="8" t="s">
         <v>530</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -10276,18 +10527,18 @@
       <c r="F155" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G155" s="30" t="s">
+      <c r="G155" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I155" s="25">
+      <c r="I155" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="8" t="s">
         <v>531</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -10305,18 +10556,18 @@
       <c r="F156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G156" s="30" t="s">
+      <c r="G156" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I156" s="25">
+      <c r="I156" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="8" t="s">
         <v>532</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -10334,18 +10585,18 @@
       <c r="F157" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G157" s="30" t="s">
+      <c r="G157" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I157" s="25">
+      <c r="I157" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="8" t="s">
         <v>533</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -10363,18 +10614,18 @@
       <c r="F158" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G158" s="30" t="s">
+      <c r="G158" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I158" s="25">
+      <c r="I158" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="8" t="s">
         <v>534</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -10392,44 +10643,44 @@
       <c r="F159" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G159" s="30" t="s">
+      <c r="G159" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I159" s="25">
+      <c r="I159" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="22" t="s">
+      <c r="A161" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="22"/>
-      <c r="I161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A162" s="24" t="s">
+      <c r="A162" s="8" t="s">
         <v>481</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -10444,18 +10695,18 @@
       <c r="F162" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G162" s="30" t="s">
+      <c r="G162" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I162" s="25">
+      <c r="I162" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="8" t="s">
         <v>563</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -10470,18 +10721,18 @@
       <c r="F163" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G163" s="30" t="s">
+      <c r="G163" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I163" s="25">
+      <c r="I163" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="8" t="s">
         <v>564</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -10496,18 +10747,18 @@
       <c r="F164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G164" s="30" t="s">
+      <c r="G164" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I164" s="25">
+      <c r="I164" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="8" t="s">
         <v>565</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -10522,18 +10773,18 @@
       <c r="F165" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G165" s="30" t="s">
+      <c r="G165" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I165" s="25">
+      <c r="I165" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="8" t="s">
         <v>566</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -10551,18 +10802,18 @@
       <c r="F166" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G166" s="30" t="s">
+      <c r="G166" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I166" s="25">
+      <c r="I166" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="8" t="s">
         <v>567</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -10580,18 +10831,18 @@
       <c r="F167" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G167" s="30" t="s">
+      <c r="G167" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I167" s="25">
+      <c r="I167" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="8" t="s">
         <v>568</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -10606,18 +10857,18 @@
       <c r="F168" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G168" s="30" t="s">
+      <c r="G168" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I168" s="25">
+      <c r="I168" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="8" t="s">
         <v>569</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -10632,18 +10883,18 @@
       <c r="F169" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G169" s="30" t="s">
+      <c r="G169" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I169" s="25">
+      <c r="I169" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="8" t="s">
         <v>570</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -10658,18 +10909,18 @@
       <c r="F170" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G170" s="30" t="s">
+      <c r="G170" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I170" s="25">
+      <c r="I170" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="8" t="s">
         <v>571</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -10687,18 +10938,18 @@
       <c r="F171" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G171" s="30" t="s">
+      <c r="G171" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I171" s="25">
+      <c r="I171" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A172" s="24" t="s">
+      <c r="A172" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -10713,18 +10964,18 @@
       <c r="F172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G172" s="30" t="s">
+      <c r="G172" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I172" s="25">
+      <c r="I172" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="24" t="s">
+      <c r="A173" s="8" t="s">
         <v>573</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -10739,18 +10990,18 @@
       <c r="F173" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G173" s="30" t="s">
+      <c r="G173" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I173" s="25">
+      <c r="I173" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A174" s="24" t="s">
+      <c r="A174" s="8" t="s">
         <v>574</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -10768,41 +11019,41 @@
       <c r="F174" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G174" s="30" t="s">
+      <c r="G174" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I174" s="25">
+      <c r="I174" s="9">
         <v>42907</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="18"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="27"/>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="15"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="14"/>
     </row>
     <row r="177" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
@@ -10823,7 +11074,7 @@
       <c r="F177" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G177" s="29" t="s">
+      <c r="G177" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H177" s="3" t="s">
@@ -10834,30 +11085,30 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="18"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="27"/>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="15"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="14"/>
     </row>
     <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
@@ -10878,7 +11129,7 @@
       <c r="F180" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G180" s="29" t="s">
+      <c r="G180" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H180" s="3" t="s">
@@ -10907,7 +11158,7 @@
       <c r="F181" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G181" s="29" t="s">
+      <c r="G181" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H181" s="3" t="s">
@@ -10936,7 +11187,7 @@
       <c r="F182" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G182" s="29" t="s">
+      <c r="G182" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H182" s="3" t="s">
@@ -10965,7 +11216,7 @@
       <c r="F183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G183" s="29" t="s">
+      <c r="G183" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H183" s="3" t="s">
@@ -10994,7 +11245,7 @@
       <c r="F184" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G184" s="29" t="s">
+      <c r="G184" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H184" s="3" t="s">
@@ -11023,7 +11274,7 @@
       <c r="F185" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G185" s="29" t="s">
+      <c r="G185" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H185" s="3" t="s">
@@ -11052,7 +11303,7 @@
       <c r="F186" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G186" s="29" t="s">
+      <c r="G186" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H186" s="3" t="s">
@@ -11063,30 +11314,30 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="18"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="27"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="15"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="14"/>
     </row>
     <row r="189" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
@@ -11107,7 +11358,7 @@
       <c r="F189" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G189" s="29" t="s">
+      <c r="G189" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H189" s="3" t="s">
@@ -11136,7 +11387,7 @@
       <c r="F190" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G190" s="29" t="s">
+      <c r="G190" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H190" s="3" t="s">
@@ -11165,7 +11416,7 @@
       <c r="F191" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G191" s="29" t="s">
+      <c r="G191" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H191" s="3" t="s">
@@ -11194,7 +11445,7 @@
       <c r="F192" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="G192" s="29" t="s">
+      <c r="G192" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H192" s="3" t="s">
@@ -11223,7 +11474,7 @@
       <c r="F193" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G193" s="29" t="s">
+      <c r="G193" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H193" s="3" t="s">
@@ -11252,7 +11503,7 @@
       <c r="F194" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G194" s="29" t="s">
+      <c r="G194" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H194" s="3" t="s">
@@ -11281,7 +11532,7 @@
       <c r="F195" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G195" s="29" t="s">
+      <c r="G195" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H195" s="3" t="s">
@@ -11292,30 +11543,30 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="18"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="27"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="15"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="14"/>
     </row>
     <row r="198" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
@@ -11336,7 +11587,7 @@
       <c r="F198" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G198" s="29" t="s">
+      <c r="G198" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H198" s="3" t="s">
@@ -11347,30 +11598,30 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="18"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="26"/>
+      <c r="I199" s="27"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="15"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="14"/>
     </row>
     <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
@@ -11391,7 +11642,7 @@
       <c r="F201" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G201" s="29" t="s">
+      <c r="G201" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H201" s="3" t="s">
@@ -11420,7 +11671,7 @@
       <c r="F202" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G202" s="29" t="s">
+      <c r="G202" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H202" s="3" t="s">
@@ -11431,30 +11682,30 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="18"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="27"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="15"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="14"/>
     </row>
     <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -11475,7 +11726,7 @@
       <c r="F205" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G205" s="29" t="s">
+      <c r="G205" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H205" s="3" t="s">
@@ -11485,33 +11736,185 @@
         <v>18</v>
       </c>
     </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="14"/>
+    </row>
+    <row r="208" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G210" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A128:I128"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A144:I144"/>
-    <mergeCell ref="A127:I127"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A178:I178"/>
-    <mergeCell ref="A145:I145"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A161:I161"/>
-    <mergeCell ref="A176:I176"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A112:I112"/>
+  <mergeCells count="51">
+    <mergeCell ref="A206:I206"/>
+    <mergeCell ref="A207:I207"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A199:I199"/>
+    <mergeCell ref="A200:I200"/>
+    <mergeCell ref="A204:I204"/>
+    <mergeCell ref="A179:I179"/>
+    <mergeCell ref="A188:I188"/>
+    <mergeCell ref="A196:I196"/>
+    <mergeCell ref="A203:I203"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A86:I86"/>
     <mergeCell ref="A88:I88"/>
@@ -11528,14 +11931,31 @@
     <mergeCell ref="A53:I53"/>
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A199:I199"/>
-    <mergeCell ref="A200:I200"/>
-    <mergeCell ref="A204:I204"/>
-    <mergeCell ref="A179:I179"/>
-    <mergeCell ref="A188:I188"/>
-    <mergeCell ref="A196:I196"/>
-    <mergeCell ref="A203:I203"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A178:I178"/>
+    <mergeCell ref="A145:I145"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="A176:I176"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A131:I131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
